--- a/codes/test_shell_output/testavgWordL_2.xlsx
+++ b/codes/test_shell_output/testavgWordL_2.xlsx
@@ -348,304 +348,304 @@
   <sheetData>
     <row r="6" spans="2:101">
       <c r="B6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="C6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="D6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="E6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="F6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="G6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="H6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="I6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="J6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="K6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="L6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="M6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="N6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="O6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="P6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Q6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="R6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="S6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="T6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="U6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="V6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="W6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="X6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Y6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Z6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AA6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AB6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AC6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AD6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AE6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AF6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AG6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AH6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AI6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AJ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AK6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AL6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AM6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AN6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AO6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AP6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AQ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AR6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AS6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AT6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AU6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AV6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AW6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AX6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AY6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AZ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BA6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BB6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BC6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BD6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BE6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BF6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BG6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BH6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BI6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BJ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BK6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BL6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BM6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BN6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BO6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BP6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BQ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BR6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BS6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BT6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BU6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BV6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BW6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BX6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BY6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BZ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CA6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CB6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CC6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CD6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CE6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CF6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CG6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CH6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CI6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CJ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CK6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CL6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CM6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CN6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CO6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CP6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CQ6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CR6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CS6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CT6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CU6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CV6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CW6">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testavgWordL_2.xlsx
+++ b/codes/test_shell_output/testavgWordL_2.xlsx
@@ -348,304 +348,304 @@
   <sheetData>
     <row r="6" spans="2:101">
       <c r="B6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="C6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="D6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="E6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="F6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="G6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="H6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="I6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="J6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="K6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="L6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="M6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="N6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="O6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="P6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Q6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="R6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="S6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="T6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="U6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="V6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="W6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="X6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Y6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Z6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AA6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AB6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AC6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AD6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AE6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AF6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AG6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AH6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AI6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AJ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AK6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AL6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AM6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AN6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AO6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AP6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AQ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AR6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AS6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AT6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AU6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AV6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AW6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AX6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AY6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AZ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BA6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BB6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BC6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BD6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BE6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BF6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BG6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BH6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BI6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BJ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BK6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BL6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BM6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BN6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BO6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BP6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BQ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BR6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BS6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BT6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BU6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BV6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BW6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BX6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BY6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BZ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CA6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CB6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CC6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CD6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CE6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CF6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CG6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CH6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CI6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CJ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CK6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CL6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CM6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CN6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CO6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CP6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CQ6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CR6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CS6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CT6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CU6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CV6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CW6">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testavgWordL_2.xlsx
+++ b/codes/test_shell_output/testavgWordL_2.xlsx
@@ -348,304 +348,304 @@
   <sheetData>
     <row r="6" spans="2:101">
       <c r="B6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="C6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="D6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="E6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="F6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="G6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="H6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="I6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="J6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="K6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="L6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="M6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="N6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="O6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="P6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Q6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="R6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="S6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="T6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="U6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="V6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="W6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="X6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Y6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Z6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AA6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AB6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AC6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AD6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AE6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AF6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AG6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AH6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AI6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AJ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AK6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AL6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AM6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AN6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AO6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AP6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AQ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AR6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AS6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AT6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AU6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AV6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AW6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AX6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AY6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AZ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BA6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BB6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BC6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BD6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BE6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BF6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BG6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BH6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BI6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BJ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BK6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BL6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BM6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BN6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BO6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BP6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BQ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BR6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BS6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BT6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BU6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BV6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BW6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BX6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BY6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BZ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CA6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CB6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CC6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CD6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CE6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CF6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CG6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CH6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CI6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CJ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CK6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CL6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CM6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CN6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CO6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CP6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CQ6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CR6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CS6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CT6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CU6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CV6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CW6">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
     </row>
   </sheetData>
